--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Thbs1-Itgb1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Thbs1-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.6807057203939</v>
+        <v>149.656361</v>
       </c>
       <c r="H2">
-        <v>33.6807057203939</v>
+        <v>448.969083</v>
       </c>
       <c r="I2">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347563</v>
       </c>
       <c r="J2">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347564</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N2">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q2">
-        <v>3553.877308229492</v>
+        <v>16838.34481048651</v>
       </c>
       <c r="R2">
-        <v>3553.877308229492</v>
+        <v>151545.1032943786</v>
       </c>
       <c r="S2">
-        <v>0.08292072058605746</v>
+        <v>0.19394309853408</v>
       </c>
       <c r="T2">
-        <v>0.08292072058605746</v>
+        <v>0.19394309853408</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.6807057203939</v>
+        <v>149.656361</v>
       </c>
       <c r="H3">
-        <v>33.6807057203939</v>
+        <v>448.969083</v>
       </c>
       <c r="I3">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347563</v>
       </c>
       <c r="J3">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347564</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N3">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q3">
-        <v>3576.06560089257</v>
+        <v>15910.63610321822</v>
       </c>
       <c r="R3">
-        <v>3576.06560089257</v>
+        <v>143195.724928964</v>
       </c>
       <c r="S3">
-        <v>0.08343842816474518</v>
+        <v>0.1832578023693046</v>
       </c>
       <c r="T3">
-        <v>0.08343842816474518</v>
+        <v>0.1832578023693047</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.6807057203939</v>
+        <v>149.656361</v>
       </c>
       <c r="H4">
-        <v>33.6807057203939</v>
+        <v>448.969083</v>
       </c>
       <c r="I4">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347563</v>
       </c>
       <c r="J4">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347564</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N4">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q4">
-        <v>4171.841664262876</v>
+        <v>18660.89938425291</v>
       </c>
       <c r="R4">
-        <v>4171.841664262876</v>
+        <v>167948.0944582762</v>
       </c>
       <c r="S4">
-        <v>0.09733935276002958</v>
+        <v>0.2149351785313717</v>
       </c>
       <c r="T4">
-        <v>0.09733935276002958</v>
+        <v>0.2149351785313718</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.1168129681512</v>
+        <v>52.73412466666667</v>
       </c>
       <c r="H5">
-        <v>50.1168129681512</v>
+        <v>158.202374</v>
       </c>
       <c r="I5">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="J5">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N5">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q5">
-        <v>5288.161294685931</v>
+        <v>5933.295240397536</v>
       </c>
       <c r="R5">
-        <v>5288.161294685931</v>
+        <v>53399.65716357782</v>
       </c>
       <c r="S5">
-        <v>0.123385842306726</v>
+        <v>0.06833935736507581</v>
       </c>
       <c r="T5">
-        <v>0.123385842306726</v>
+        <v>0.06833935736507581</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.1168129681512</v>
+        <v>52.73412466666667</v>
       </c>
       <c r="H6">
-        <v>50.1168129681512</v>
+        <v>158.202374</v>
       </c>
       <c r="I6">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="J6">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N6">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q6">
-        <v>5321.177423347533</v>
+        <v>5606.400303914094</v>
       </c>
       <c r="R6">
-        <v>5321.177423347533</v>
+        <v>50457.60273522685</v>
       </c>
       <c r="S6">
-        <v>0.1241561899980327</v>
+        <v>0.0645742000654571</v>
       </c>
       <c r="T6">
-        <v>0.1241561899980327</v>
+        <v>0.06457420006545712</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>50.1168129681512</v>
+        <v>52.73412466666667</v>
       </c>
       <c r="H7">
-        <v>50.1168129681512</v>
+        <v>158.202374</v>
       </c>
       <c r="I7">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="J7">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N7">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q7">
-        <v>6207.690841050405</v>
+        <v>6575.505297241032</v>
       </c>
       <c r="R7">
-        <v>6207.690841050405</v>
+        <v>59179.54767516928</v>
       </c>
       <c r="S7">
-        <v>0.1448407339565164</v>
+        <v>0.07573629630033309</v>
       </c>
       <c r="T7">
-        <v>0.1448407339565164</v>
+        <v>0.07573629630033311</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>43.9267782923779</v>
+        <v>50.34932566666667</v>
       </c>
       <c r="H8">
-        <v>43.9267782923779</v>
+        <v>151.047977</v>
       </c>
       <c r="I8">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="J8">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N8">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q8">
-        <v>4635.009191698252</v>
+        <v>5664.973415669328</v>
       </c>
       <c r="R8">
-        <v>4635.009191698252</v>
+        <v>50984.76074102395</v>
       </c>
       <c r="S8">
-        <v>0.1081461932320034</v>
+        <v>0.06524884183770055</v>
       </c>
       <c r="T8">
-        <v>0.1081461932320034</v>
+        <v>0.06524884183770056</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>43.9267782923779</v>
+        <v>50.34932566666667</v>
       </c>
       <c r="H9">
-        <v>43.9267782923779</v>
+        <v>151.047977</v>
       </c>
       <c r="I9">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="J9">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N9">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q9">
-        <v>4663.947427749144</v>
+        <v>5352.86167171176</v>
       </c>
       <c r="R9">
-        <v>4663.947427749144</v>
+        <v>48175.75504540584</v>
       </c>
       <c r="S9">
-        <v>0.1088213936336247</v>
+        <v>0.06165395650940461</v>
       </c>
       <c r="T9">
-        <v>0.1088213936336247</v>
+        <v>0.06165395650940463</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>43.9267782923779</v>
+        <v>50.34932566666667</v>
       </c>
       <c r="H10">
-        <v>43.9267782923779</v>
+        <v>151.047977</v>
       </c>
       <c r="I10">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="J10">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N10">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q10">
-        <v>5440.965678638309</v>
+        <v>6278.140762293754</v>
       </c>
       <c r="R10">
-        <v>5440.965678638309</v>
+        <v>56503.26686064379</v>
       </c>
       <c r="S10">
-        <v>0.1269511453622646</v>
+        <v>0.0723112684872725</v>
       </c>
       <c r="T10">
-        <v>0.1269511453622646</v>
+        <v>0.07231126848727251</v>
       </c>
     </row>
   </sheetData>
